--- a/0755 Fantasy Football 2022.xlsx
+++ b/0755 Fantasy Football 2022.xlsx
@@ -10,14 +10,16 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="62">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -49,51 +51,87 @@
     <t>Chicken Fried Chicken Meal</t>
   </si>
   <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>9 - 5 - 0</t>
-  </si>
-  <si>
-    <t>7 - 7 - 0</t>
-  </si>
-  <si>
-    <t>8 - 6 - 0</t>
-  </si>
-  <si>
-    <t>5 - 9 - 0</t>
-  </si>
-  <si>
-    <t>6 - 8 - 0</t>
-  </si>
-  <si>
-    <t>4 - 10 - 0</t>
-  </si>
-  <si>
-    <t>10 - 4 - 0</t>
-  </si>
-  <si>
-    <t>11 - 3 - 0</t>
-  </si>
-  <si>
-    <t>3 - 11 - 0</t>
-  </si>
-  <si>
-    <t>2 - 12 - 0</t>
-  </si>
-  <si>
-    <t>Avg Wins Against Schedule</t>
+    <t>Wins Against Schedule</t>
   </si>
   <si>
     <t>Record</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Expected Wins</t>
   </si>
   <si>
     <t>Difference</t>
   </si>
   <si>
+    <t>Place 1</t>
+  </si>
+  <si>
+    <t>Place 2</t>
+  </si>
+  <si>
+    <t>Place 3</t>
+  </si>
+  <si>
+    <t>Place 4</t>
+  </si>
+  <si>
+    <t>Place 5</t>
+  </si>
+  <si>
+    <t>Place 6</t>
+  </si>
+  <si>
+    <t>Place 7</t>
+  </si>
+  <si>
+    <t>Place 8</t>
+  </si>
+  <si>
+    <t>Place 9</t>
+  </si>
+  <si>
+    <t>Place 10</t>
+  </si>
+  <si>
+    <t>Chance of making playoffs</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
@@ -103,25 +141,70 @@
     <t>↑1</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -486,9 +569,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -560,34 +640,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -595,34 +675,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -630,34 +710,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -665,34 +745,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,34 +780,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,34 +815,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,34 +850,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -805,34 +885,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -840,34 +920,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +965,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -896,7 +976,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -905,12 +985,12 @@
         <v>5.6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -919,12 +999,12 @@
         <v>5.9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -933,12 +1013,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -947,12 +1027,12 @@
         <v>6.5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -961,12 +1041,12 @@
         <v>6.5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -975,12 +1055,12 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -989,12 +1069,12 @@
         <v>7.3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1003,12 +1083,12 @@
         <v>8.300000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1017,12 +1097,12 @@
         <v>8.300000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1031,7 +1111,7 @@
         <v>8.6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1049,13 +1129,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1063,7 +1143,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1075,12 +1155,12 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1092,12 +1172,12 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1109,12 +1189,12 @@
         <v>1.6</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1126,12 +1206,12 @@
         <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1143,12 +1223,12 @@
         <v>-1.7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1160,12 +1240,12 @@
         <v>1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1177,12 +1257,12 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1194,12 +1274,12 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1211,12 +1291,12 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1228,7 +1308,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1237,6 +1317,437 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>26.93</v>
+      </c>
+      <c r="C2">
+        <v>19.87</v>
+      </c>
+      <c r="D2">
+        <v>16.51</v>
+      </c>
+      <c r="E2">
+        <v>12.65</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>7.180000000000001</v>
+      </c>
+      <c r="H2">
+        <v>4.45</v>
+      </c>
+      <c r="I2">
+        <v>1.8</v>
+      </c>
+      <c r="J2">
+        <v>0.47</v>
+      </c>
+      <c r="K2">
+        <v>0.14</v>
+      </c>
+      <c r="L2">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>17.77</v>
+      </c>
+      <c r="C3">
+        <v>16.91</v>
+      </c>
+      <c r="D3">
+        <v>15.34</v>
+      </c>
+      <c r="E3">
+        <v>14.59</v>
+      </c>
+      <c r="F3">
+        <v>12.47</v>
+      </c>
+      <c r="G3">
+        <v>10.16</v>
+      </c>
+      <c r="H3">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="I3">
+        <v>3.44</v>
+      </c>
+      <c r="J3">
+        <v>1.04</v>
+      </c>
+      <c r="K3">
+        <v>0.24</v>
+      </c>
+      <c r="L3">
+        <v>87.23999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>13.92</v>
+      </c>
+      <c r="C4">
+        <v>13.97</v>
+      </c>
+      <c r="D4">
+        <v>14.25</v>
+      </c>
+      <c r="E4">
+        <v>13.7</v>
+      </c>
+      <c r="F4">
+        <v>13.32</v>
+      </c>
+      <c r="G4">
+        <v>12.75</v>
+      </c>
+      <c r="H4">
+        <v>10.5</v>
+      </c>
+      <c r="I4">
+        <v>5.029999999999999</v>
+      </c>
+      <c r="J4">
+        <v>1.96</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>81.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>11.2</v>
+      </c>
+      <c r="C5">
+        <v>12.06</v>
+      </c>
+      <c r="D5">
+        <v>13.07</v>
+      </c>
+      <c r="E5">
+        <v>13.38</v>
+      </c>
+      <c r="F5">
+        <v>14.53</v>
+      </c>
+      <c r="G5">
+        <v>13.71</v>
+      </c>
+      <c r="H5">
+        <v>11.64</v>
+      </c>
+      <c r="I5">
+        <v>6.67</v>
+      </c>
+      <c r="J5">
+        <v>2.71</v>
+      </c>
+      <c r="K5">
+        <v>1.03</v>
+      </c>
+      <c r="L5">
+        <v>77.95000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10.72</v>
+      </c>
+      <c r="C6">
+        <v>12.79</v>
+      </c>
+      <c r="D6">
+        <v>13.75</v>
+      </c>
+      <c r="E6">
+        <v>13.95</v>
+      </c>
+      <c r="F6">
+        <v>13.42</v>
+      </c>
+      <c r="G6">
+        <v>13.3</v>
+      </c>
+      <c r="H6">
+        <v>11.55</v>
+      </c>
+      <c r="I6">
+        <v>6.87</v>
+      </c>
+      <c r="J6">
+        <v>2.71</v>
+      </c>
+      <c r="K6">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="L6">
+        <v>77.93000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>9.81</v>
+      </c>
+      <c r="C7">
+        <v>11.69</v>
+      </c>
+      <c r="D7">
+        <v>12.68</v>
+      </c>
+      <c r="E7">
+        <v>13.97</v>
+      </c>
+      <c r="F7">
+        <v>13.93</v>
+      </c>
+      <c r="G7">
+        <v>13.2</v>
+      </c>
+      <c r="H7">
+        <v>11.4</v>
+      </c>
+      <c r="I7">
+        <v>7.71</v>
+      </c>
+      <c r="J7">
+        <v>4.06</v>
+      </c>
+      <c r="K7">
+        <v>1.55</v>
+      </c>
+      <c r="L7">
+        <v>75.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9.1</v>
+      </c>
+      <c r="C8">
+        <v>11.72</v>
+      </c>
+      <c r="D8">
+        <v>12.38</v>
+      </c>
+      <c r="E8">
+        <v>13.38</v>
+      </c>
+      <c r="F8">
+        <v>14.37</v>
+      </c>
+      <c r="G8">
+        <v>14.13</v>
+      </c>
+      <c r="H8">
+        <v>12.18</v>
+      </c>
+      <c r="I8">
+        <v>8.08</v>
+      </c>
+      <c r="J8">
+        <v>3.34</v>
+      </c>
+      <c r="K8">
+        <v>1.32</v>
+      </c>
+      <c r="L8">
+        <v>75.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.46</v>
+      </c>
+      <c r="C9">
+        <v>0.73</v>
+      </c>
+      <c r="D9">
+        <v>1.47</v>
+      </c>
+      <c r="E9">
+        <v>2.93</v>
+      </c>
+      <c r="F9">
+        <v>4.68</v>
+      </c>
+      <c r="G9">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="H9">
+        <v>13.8</v>
+      </c>
+      <c r="I9">
+        <v>22.17</v>
+      </c>
+      <c r="J9">
+        <v>24.24</v>
+      </c>
+      <c r="K9">
+        <v>20.9</v>
+      </c>
+      <c r="L9">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10">
+        <v>0.13</v>
+      </c>
+      <c r="D10">
+        <v>0.24</v>
+      </c>
+      <c r="E10">
+        <v>0.79</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="G10">
+        <v>3.58</v>
+      </c>
+      <c r="H10">
+        <v>9.26</v>
+      </c>
+      <c r="I10">
+        <v>20.77</v>
+      </c>
+      <c r="J10">
+        <v>32.42</v>
+      </c>
+      <c r="K10">
+        <v>30.96</v>
+      </c>
+      <c r="L10">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.04</v>
+      </c>
+      <c r="C11">
+        <v>0.13</v>
+      </c>
+      <c r="D11">
+        <v>0.31</v>
+      </c>
+      <c r="E11">
+        <v>0.66</v>
+      </c>
+      <c r="F11">
+        <v>1.48</v>
+      </c>
+      <c r="G11">
+        <v>3.37</v>
+      </c>
+      <c r="H11">
+        <v>7.180000000000001</v>
+      </c>
+      <c r="I11">
+        <v>17.46</v>
+      </c>
+      <c r="J11">
+        <v>27.05</v>
+      </c>
+      <c r="K11">
+        <v>42.32</v>
+      </c>
+      <c r="L11">
+        <v>5.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1246,106 +1757,106 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1354,78 +1865,638 @@
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
+        <v>-30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-7</v>
+      </c>
+      <c r="D5">
+        <v>-13</v>
+      </c>
+      <c r="E5">
+        <v>-4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>-5</v>
+      </c>
+      <c r="K6">
+        <v>-10</v>
+      </c>
+      <c r="L6">
+        <v>-8</v>
+      </c>
+      <c r="M6">
+        <v>-6</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>-8</v>
+      </c>
+      <c r="O8">
+        <v>-10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-8</v>
+      </c>
+      <c r="D9">
+        <v>-13</v>
+      </c>
+      <c r="E9">
+        <v>-19</v>
+      </c>
+      <c r="F9">
         <v>-25</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
+      <c r="G9">
+        <v>-18</v>
+      </c>
+      <c r="H9">
+        <v>-12</v>
+      </c>
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9">
+        <v>-13</v>
+      </c>
+      <c r="K9">
+        <v>-16</v>
+      </c>
+      <c r="L9">
+        <v>-14</v>
+      </c>
+      <c r="M9">
+        <v>-8</v>
+      </c>
+      <c r="N9">
+        <v>-16</v>
+      </c>
+      <c r="O9">
+        <v>-14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10">
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <v>-12</v>
+      </c>
+      <c r="I10">
+        <v>-18</v>
+      </c>
+      <c r="J10">
+        <v>-17</v>
+      </c>
+      <c r="K10">
+        <v>-16</v>
+      </c>
+      <c r="L10">
+        <v>-19</v>
+      </c>
+      <c r="M10">
+        <v>-19</v>
+      </c>
+      <c r="N10">
+        <v>-14</v>
+      </c>
+      <c r="O10">
+        <v>-16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>-5</v>
+      </c>
+      <c r="E11">
+        <v>-16</v>
+      </c>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
+        <v>-10</v>
+      </c>
+      <c r="H11">
+        <v>-12</v>
+      </c>
+      <c r="I11">
+        <v>-14</v>
+      </c>
+      <c r="J11">
+        <v>-14</v>
+      </c>
+      <c r="K11">
+        <v>-13</v>
+      </c>
+      <c r="L11">
+        <v>-19</v>
+      </c>
+      <c r="M11">
+        <v>-14</v>
+      </c>
+      <c r="N11">
+        <v>-22</v>
+      </c>
+      <c r="O11">
+        <v>-30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2022.xlsx
+++ b/0755 Fantasy Football 2022.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="80">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -132,12 +133,45 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Mary Pat Tumelty</t>
+  </si>
+  <si>
+    <t>Jacob Nichols</t>
+  </si>
+  <si>
+    <t>Grace Olenzak</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Kyle R</t>
+  </si>
+  <si>
+    <t>Mike P</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
+    <t>Jaime Cunningham</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
@@ -205,6 +239,27 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1367,37 +1422,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>26.93</v>
+        <v>27.1</v>
       </c>
       <c r="C2">
-        <v>19.87</v>
+        <v>20.16</v>
       </c>
       <c r="D2">
-        <v>16.51</v>
+        <v>16.23</v>
       </c>
       <c r="E2">
-        <v>12.65</v>
+        <v>13.05</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>9.76</v>
       </c>
       <c r="G2">
-        <v>7.180000000000001</v>
+        <v>7.08</v>
       </c>
       <c r="H2">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I2">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J2">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
-        <v>0.14</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L2">
-        <v>93.14</v>
+        <v>93.38000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1405,37 +1460,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>17.77</v>
+        <v>17.69</v>
       </c>
       <c r="C3">
-        <v>16.91</v>
+        <v>16.22</v>
       </c>
       <c r="D3">
-        <v>15.34</v>
+        <v>14.81</v>
       </c>
       <c r="E3">
-        <v>14.59</v>
+        <v>14.4</v>
       </c>
       <c r="F3">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="G3">
-        <v>10.16</v>
+        <v>11.21</v>
       </c>
       <c r="H3">
-        <v>8.039999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="I3">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K3">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="L3">
-        <v>87.23999999999999</v>
+        <v>86.81</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1443,113 +1498,113 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13.92</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>13.97</v>
+        <v>14.9</v>
       </c>
       <c r="D4">
-        <v>14.25</v>
+        <v>13.89</v>
       </c>
       <c r="E4">
-        <v>13.7</v>
+        <v>13.99</v>
       </c>
       <c r="F4">
-        <v>13.32</v>
+        <v>13.34</v>
       </c>
       <c r="G4">
-        <v>12.75</v>
+        <v>12.51</v>
       </c>
       <c r="H4">
-        <v>10.5</v>
+        <v>10.81</v>
       </c>
       <c r="I4">
-        <v>5.029999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="J4">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L4">
-        <v>81.91</v>
+        <v>81.63</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="C5">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="D5">
-        <v>13.07</v>
+        <v>13.51</v>
       </c>
       <c r="E5">
-        <v>13.38</v>
+        <v>13.64</v>
       </c>
       <c r="F5">
-        <v>14.53</v>
+        <v>13.76</v>
       </c>
       <c r="G5">
-        <v>13.71</v>
+        <v>13.08</v>
       </c>
       <c r="H5">
-        <v>11.64</v>
+        <v>11.55</v>
       </c>
       <c r="I5">
-        <v>6.67</v>
+        <v>6.84</v>
       </c>
       <c r="J5">
-        <v>2.71</v>
+        <v>3.11</v>
       </c>
       <c r="K5">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="L5">
-        <v>77.95000000000002</v>
+        <v>77.53999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>10.72</v>
+        <v>11.22</v>
       </c>
       <c r="C6">
+        <v>12.32</v>
+      </c>
+      <c r="D6">
         <v>12.79</v>
       </c>
-      <c r="D6">
-        <v>13.75</v>
-      </c>
       <c r="E6">
-        <v>13.95</v>
+        <v>13.86</v>
       </c>
       <c r="F6">
-        <v>13.42</v>
+        <v>14.21</v>
       </c>
       <c r="G6">
-        <v>13.3</v>
+        <v>13.49</v>
       </c>
       <c r="H6">
-        <v>11.55</v>
+        <v>12.24</v>
       </c>
       <c r="I6">
-        <v>6.87</v>
+        <v>6.19</v>
       </c>
       <c r="J6">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="K6">
-        <v>0.9400000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="L6">
-        <v>77.93000000000001</v>
+        <v>77.89</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1557,37 +1612,37 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>9.81</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="C7">
-        <v>11.69</v>
+        <v>11.6</v>
       </c>
       <c r="D7">
-        <v>12.68</v>
+        <v>13.54</v>
       </c>
       <c r="E7">
-        <v>13.97</v>
+        <v>13.16</v>
       </c>
       <c r="F7">
-        <v>13.93</v>
+        <v>13.84</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>14.25</v>
       </c>
       <c r="H7">
-        <v>11.4</v>
+        <v>11.58</v>
       </c>
       <c r="I7">
-        <v>7.71</v>
+        <v>7.24</v>
       </c>
       <c r="J7">
-        <v>4.06</v>
+        <v>3.81</v>
       </c>
       <c r="K7">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="L7">
-        <v>75.28</v>
+        <v>76.02</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1595,37 +1650,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.1</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C8">
-        <v>11.72</v>
+        <v>11.68</v>
       </c>
       <c r="D8">
-        <v>12.38</v>
+        <v>12.88</v>
       </c>
       <c r="E8">
-        <v>13.38</v>
+        <v>13.63</v>
       </c>
       <c r="F8">
-        <v>14.37</v>
+        <v>14.13</v>
       </c>
       <c r="G8">
-        <v>14.13</v>
+        <v>13.59</v>
       </c>
       <c r="H8">
-        <v>12.18</v>
+        <v>12.03</v>
       </c>
       <c r="I8">
-        <v>8.08</v>
+        <v>7.580000000000001</v>
       </c>
       <c r="J8">
-        <v>3.34</v>
+        <v>3.78</v>
       </c>
       <c r="K8">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="L8">
-        <v>75.08</v>
+        <v>75.44000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1633,37 +1688,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="C9">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="D9">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="E9">
-        <v>2.93</v>
+        <v>2.66</v>
       </c>
       <c r="F9">
-        <v>4.68</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="G9">
-        <v>8.619999999999999</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="H9">
-        <v>13.8</v>
+        <v>13.48</v>
       </c>
       <c r="I9">
-        <v>22.17</v>
+        <v>23.13</v>
       </c>
       <c r="J9">
-        <v>24.24</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>20.9</v>
+        <v>21.32</v>
       </c>
       <c r="L9">
-        <v>18.89</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1674,34 +1729,34 @@
         <v>0.05</v>
       </c>
       <c r="C10">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="D10">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="E10">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="F10">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G10">
-        <v>3.58</v>
+        <v>3.78</v>
       </c>
       <c r="H10">
-        <v>9.26</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="I10">
-        <v>20.77</v>
+        <v>21.89</v>
       </c>
       <c r="J10">
-        <v>32.42</v>
+        <v>32.01</v>
       </c>
       <c r="K10">
-        <v>30.96</v>
+        <v>31.31</v>
       </c>
       <c r="L10">
-        <v>6.59</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1712,34 +1767,34 @@
         <v>0.04</v>
       </c>
       <c r="C11">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="D11">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="E11">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="F11">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="G11">
-        <v>3.37</v>
+        <v>3.29</v>
       </c>
       <c r="H11">
-        <v>7.180000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="I11">
-        <v>17.46</v>
+        <v>16.83</v>
       </c>
       <c r="J11">
-        <v>27.05</v>
+        <v>27.12</v>
       </c>
       <c r="K11">
-        <v>42.32</v>
+        <v>42.05</v>
       </c>
       <c r="L11">
-        <v>5.99</v>
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
@@ -1749,13 +1804,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1763,180 +1818,213 @@
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
         <v>-1</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
         <v>-10</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
         <v>-14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>-16</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
         <v>-30</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1954,49 +2042,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2046,7 +2134,7 @@
         <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2096,7 +2184,7 @@
         <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2146,7 +2234,7 @@
         <v>16</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2196,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2246,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2296,7 +2384,7 @@
         <v>-1</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2346,7 +2434,7 @@
         <v>-10</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2396,7 +2484,7 @@
         <v>-14</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2446,7 +2534,7 @@
         <v>-16</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2496,7 +2584,459 @@
         <v>-30</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>-14</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-14</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>-12</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>-14</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-16</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>-13</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-19</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>-18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-17</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>-8</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>-4</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2022.xlsx
+++ b/0755 Fantasy Football 2022.xlsx
@@ -3658,7 +3658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3689,30 +3689,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -3738,27 +3758,45 @@
       <c r="E2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1523.6</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>MOTHER MAY I</t>
         </is>
@@ -3784,27 +3822,45 @@
       <c r="E3" t="n">
         <v>-5</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1478.2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Office Director</t>
         </is>
@@ -3830,21 +3886,37 @@
       <c r="E4" t="n">
         <v>-11</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1495.38</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>MPT Phase1A</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>105</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>25</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1498.32</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Brady Gaga</t>
         </is>
@@ -3870,21 +3942,37 @@
       <c r="E5" t="n">
         <v>17</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1538.78</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Big Hurts</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>122.4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1482.04</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>The Big Hurts</t>
         </is>
@@ -3910,21 +3998,37 @@
       <c r="E6" t="n">
         <v>8</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1523.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>The Big Hurts</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>108.8</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1482.04</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>The Big Hurts</t>
         </is>
@@ -3950,21 +4054,37 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1478.2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brady Gaga</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>83.44</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>-8</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1495.38</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Office Director</t>
         </is>
@@ -3990,21 +4110,37 @@
       <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1482.04</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Office Director</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>-1</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1478.2</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Office Director</t>
         </is>
